--- a/input/generated_test_cases3 - Copia_feedbackAI_precondizioni.xlsx
+++ b/input/generated_test_cases3 - Copia_feedbackAI_precondizioni.xlsx
@@ -670,7 +670,7 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>The user is logged into the Android app with valid credentials; the device has a stable internet connection; the app is installed and updated to the latest version.</t>
+          <t>The user is logged into the Android app with valid credentials; the device has a stable internet connection; the app is installed and up to date.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
